--- a/examples/Projected/Projected_data_Example_loaded.xlsx
+++ b/examples/Projected/Projected_data_Example_loaded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,61 +542,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01223521400243044</v>
+        <v>0.005227149464190006</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>11</v>
       </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
       <c r="G2" t="n">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.999329</v>
+        <v>0.999653</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00067</v>
+        <v>0.000339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.999661</v>
+        <v>0.999992</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000339</v>
+        <v>8e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.999989</v>
+        <v>0.999996</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.1e-05</v>
+        <v>4e-06</v>
       </c>
       <c r="R2" t="n">
         <v>0.999996</v>
       </c>
       <c r="S2" t="n">
-        <v>0.999985</v>
+        <v>0.999996</v>
       </c>
       <c r="T2" t="n">
-        <v>7e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.473318487405777</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="H3" t="n">
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>1.035891</v>
+        <v>0.940195</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002789</v>
+        <v>-0.003312</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.103433</v>
+        <v>0.041076</v>
       </c>
       <c r="L3" t="n">
-        <v>0.995079</v>
+        <v>0.999994</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004921</v>
+        <v>6e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004921</v>
+        <v>6e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00246</v>
+        <v>6e-06</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.995079</v>
+        <v>0.999994</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004975</v>
+        <v>1.2e-05</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.995079</v>
+        <v>0.999441</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000553</v>
       </c>
     </row>
     <row r="4">
@@ -676,58 +676,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01589090563356876</v>
+        <v>0.005123629234731197</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>-26</v>
+        <v>-13</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000339</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>4e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999658</v>
+        <v>0.999996</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00067</v>
+        <v>0.000336</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9993300000000001</v>
+        <v>0.999664</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.000339</v>
+        <v>1.5e-05</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0.999992</v>
+      </c>
+      <c r="S4" t="n">
         <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.999996</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>

--- a/examples/Projected/Projected_data_Example_loaded.xlsx
+++ b/examples/Projected/Projected_data_Example_loaded.xlsx
@@ -542,61 +542,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005227149464190006</v>
+        <v>0.00477897934615612</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0.999653</v>
+        <v>0.999989</v>
       </c>
       <c r="J2" t="n">
         <v>7e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000339</v>
+        <v>4e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.999992</v>
+        <v>0.999657</v>
       </c>
       <c r="M2" t="n">
-        <v>8e-06</v>
+        <v>0.000343</v>
       </c>
       <c r="N2" t="n">
-        <v>0.999996</v>
+        <v>0.999993</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4e-06</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="R2" t="n">
         <v>0.999996</v>
       </c>
       <c r="S2" t="n">
-        <v>0.999996</v>
+        <v>0.999654</v>
       </c>
       <c r="T2" t="n">
-        <v>4e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.02764503099024296</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.940195</v>
+        <v>0.965796</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.003312</v>
+        <v>-0.007907000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.041076</v>
+        <v>0.016894</v>
       </c>
       <c r="L3" t="n">
-        <v>0.999994</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>6e-06</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6e-06</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6e-06</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.999994</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2e-05</v>
+        <v>0.001104</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.999441</v>
+        <v>0.999448</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000553</v>
+        <v>0.000552</v>
       </c>
     </row>
     <row r="4">
@@ -676,64 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005123629234731197</v>
+        <v>0.005778418853878975</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4e-06</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0.999996</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000336</v>
+        <v>0.000339</v>
       </c>
       <c r="M4" t="n">
-        <v>0.999664</v>
+        <v>0.999661</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.999996</v>
       </c>
       <c r="O4" t="n">
         <v>7e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5e-05</v>
+        <v>0.000343</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>0.999992</v>
+        <v>0.999989</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.999996</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4e-06</v>
       </c>
     </row>
   </sheetData>
